--- a/GATEWAY/A1#111#MEDASSOLUTIONSXX/MEDAS/VPPOWER/3.10.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MEDASSOLUTIONSXX/MEDAS/VPPOWER/3.10.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medasmilano-my.sharepoint.com/personal/francesca_polce_medas-solutions_it/Documents/Medas/Sviluppo/Chiamate e altre attività/FSE 2.0/Accreditamento/VPPower/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="13_ncr:1_{EBB54900-3E68-4668-B583-E85D243C9E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93A0173E-9040-4C5B-BAFA-12539B97C6A5}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{EBB54900-3E68-4668-B583-E85D243C9E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A991A24-8290-4D95-B95D-109A50080DEB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="903">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4677,12 +4677,6 @@
     <t>Documento non validato</t>
   </si>
   <si>
-    <t>La validazione verrà effettuata dal Repository prima della pubblicazione</t>
-  </si>
-  <si>
-    <t>L’utente apre una segnalazione all'assistenza per comunicare l’errore e richiederne la correzione</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Documento con errori di validazione: </t>
     </r>
@@ -4695,6 +4689,12 @@
       </rPr>
       <t>&lt;descrizione dell'errore fornita dal Gateway&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>L’utente apre una segnalazione all'assistenza per comunicare l’errore e richiederne la correzione. L'assistenza, una volta verificata e corretta la problematica, richiede all'utente di procedere con una nuova validazione al fine di completare il processo con successo.</t>
+  </si>
+  <si>
+    <t>Per tale tipologia di errore non bloccante, il flusso procede con la firma del documento e il successivo inoltro al Repository locale. Il Repository locale potrà quindi eseguire nuovamente la validazione prima della pubblicazione sul FSE.</t>
   </si>
 </sst>
 </file>
@@ -5089,7 +5089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5225,6 +5225,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5246,18 +5255,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7726,7 +7723,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
@@ -7743,7 +7740,7 @@
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="39.140625" customWidth="1"/>
     <col min="12" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="41.42578125" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="42.28515625" style="43" customWidth="1"/>
@@ -7769,14 +7766,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>849</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7794,14 +7791,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="63" t="s">
         <v>850</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7819,12 +7816,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>851</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7843,12 +7840,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7866,8 +7863,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7956,13 +7953,13 @@
       <c r="K9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="50" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="50" t="s">
         <v>33</v>
       </c>
       <c r="O9" s="18" t="s">
@@ -7980,7 +7977,7 @@
       <c r="S9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="62" t="s">
+      <c r="T9" s="50" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8980,13 +8977,13 @@
       <c r="C39" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="21" t="s">
         <v>109</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="51">
         <v>45364</v>
       </c>
       <c r="G39" s="37" t="s">
@@ -8998,24 +8995,24 @@
       <c r="I39" s="37" t="s">
         <v>853</v>
       </c>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="25" t="s">
         <v>135</v>
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="M39" s="38" t="s">
+      <c r="M39" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N39" s="61" t="s">
+      <c r="N39" s="49" t="s">
         <v>899</v>
       </c>
-      <c r="O39" s="38" t="s">
+      <c r="O39" s="25" t="s">
         <v>823</v>
       </c>
       <c r="P39" s="38" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -9040,10 +9037,18 @@
       <c r="E40" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="F40" s="51">
+        <v>45364</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>857</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>856</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>853</v>
+      </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
@@ -9272,13 +9277,13 @@
       <c r="C47" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="21" t="s">
         <v>125</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="51">
         <v>45364</v>
       </c>
       <c r="G47" s="37" t="s">
@@ -9290,24 +9295,24 @@
       <c r="I47" s="37" t="s">
         <v>853</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="25" t="s">
         <v>135</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="M47" s="38" t="s">
+      <c r="M47" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N47" s="61" t="s">
+      <c r="N47" s="49" t="s">
         <v>899</v>
       </c>
-      <c r="O47" s="38" t="s">
+      <c r="O47" s="25" t="s">
         <v>823</v>
       </c>
       <c r="P47" s="38" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -9562,7 +9567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>48</v>
       </c>
@@ -9572,7 +9577,7 @@
       <c r="C55" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="D55" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E55" s="22" t="s">
@@ -9592,14 +9597,14 @@
       <c r="M55" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N55" s="61" t="s">
+      <c r="N55" s="49" t="s">
         <v>899</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>823</v>
       </c>
       <c r="P55" s="38" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
@@ -13110,7 +13115,7 @@
       <c r="C158" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D158" s="63" t="s">
+      <c r="D158" s="21" t="s">
         <v>337</v>
       </c>
       <c r="E158" s="33" t="s">
@@ -13138,8 +13143,8 @@
       <c r="M158" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N158" s="61" t="s">
-        <v>902</v>
+      <c r="N158" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="O158" s="25" t="s">
         <v>135</v>
@@ -13166,7 +13171,7 @@
       <c r="C159" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D159" s="63" t="s">
+      <c r="D159" s="21" t="s">
         <v>339</v>
       </c>
       <c r="E159" s="33" t="s">
@@ -13194,8 +13199,8 @@
       <c r="M159" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N159" s="61" t="s">
-        <v>902</v>
+      <c r="N159" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>135</v>
@@ -13220,7 +13225,7 @@
       <c r="C160" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D160" s="63" t="s">
+      <c r="D160" s="21" t="s">
         <v>340</v>
       </c>
       <c r="E160" s="33" t="s">
@@ -13248,8 +13253,8 @@
       <c r="M160" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N160" s="61" t="s">
-        <v>902</v>
+      <c r="N160" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="O160" s="25" t="s">
         <v>135</v>
@@ -13312,7 +13317,7 @@
       <c r="C162" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D162" s="63" t="s">
+      <c r="D162" s="21" t="s">
         <v>342</v>
       </c>
       <c r="E162" s="33" t="s">
@@ -13340,8 +13345,8 @@
       <c r="M162" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N162" s="61" t="s">
-        <v>902</v>
+      <c r="N162" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="O162" s="25" t="s">
         <v>135</v>
@@ -13366,7 +13371,7 @@
       <c r="C163" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D163" s="63" t="s">
+      <c r="D163" s="21" t="s">
         <v>343</v>
       </c>
       <c r="E163" s="33" t="s">
@@ -13394,8 +13399,8 @@
       <c r="M163" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N163" s="61" t="s">
-        <v>902</v>
+      <c r="N163" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="O163" s="25" t="s">
         <v>135</v>
@@ -13422,7 +13427,7 @@
       <c r="C164" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D164" s="63" t="s">
+      <c r="D164" s="21" t="s">
         <v>344</v>
       </c>
       <c r="E164" s="33" t="s">
@@ -13450,8 +13455,8 @@
       <c r="M164" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N164" s="61" t="s">
-        <v>902</v>
+      <c r="N164" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="O164" s="25" t="s">
         <v>135</v>
@@ -13595,7 +13600,7 @@
       <c r="D168" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="E168" s="64" t="s">
+      <c r="E168" s="33" t="s">
         <v>841</v>
       </c>
       <c r="F168" s="36">
@@ -13620,8 +13625,8 @@
       <c r="M168" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N168" s="61" t="s">
-        <v>902</v>
+      <c r="N168" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="O168" s="38" t="s">
         <v>135</v>
@@ -13917,7 +13922,7 @@
       <c r="D176" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E176" s="64" t="s">
+      <c r="E176" s="33" t="s">
         <v>833</v>
       </c>
       <c r="F176" s="36">
@@ -13942,8 +13947,8 @@
       <c r="M176" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="N176" s="61" t="s">
-        <v>902</v>
+      <c r="N176" s="49" t="s">
+        <v>900</v>
       </c>
       <c r="O176" s="38" t="s">
         <v>135</v>
@@ -25686,12 +25691,12 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J36 L10:M36 O10:O36 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 O375:O383 L54:M198 J54:J198 J375:J383 L375:M383 O54:O167 O169:O175 O177:O198</xm:sqref>
+          <xm:sqref>J10:J36 L10:M36 O10:O36 L38:M38 J38:J44 L40:M44 O38:O44 L46:M46 J46:J52 L48:M52 O46:O52 O375:O383 L54:M198 J54:J198 J375:J383 L375:M383 O54:O167 O169:O175 O177:O198 M47 M39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/A1#111#MEDASSOLUTIONSXX/MEDAS/VPPOWER/3.10.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MEDASSOLUTIONSXX/MEDAS/VPPOWER/3.10.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medasmilano-my.sharepoint.com/personal/francesca_polce_medas-solutions_it/Documents/Medas/Sviluppo/Chiamate e altre attività/FSE 2.0/Accreditamento/VPPower/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{EBB54900-3E68-4668-B583-E85D243C9E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A991A24-8290-4D95-B95D-109A50080DEB}"/>
+  <xr:revisionPtr revIDLastSave="577" documentId="13_ncr:1_{EBB54900-3E68-4668-B583-E85D243C9E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A3BC715-C351-442C-8422-AA6AF6A78B39}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="904">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4674,9 +4674,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.bc104d6f4c2013dc0151343ffc36bf7a6c6ef4edde705ccaf380e597e1a776b2.8de09990be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Documento non validato</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Documento con errori di validazione: </t>
     </r>
@@ -4694,7 +4691,24 @@
     <t>L’utente apre una segnalazione all'assistenza per comunicare l’errore e richiederne la correzione. L'assistenza, una volta verificata e corretta la problematica, richiede all'utente di procedere con una nuova validazione al fine di completare il processo con successo.</t>
   </si>
   <si>
-    <t>Per tale tipologia di errore non bloccante, il flusso procede con la firma del documento e il successivo inoltro al Repository locale. Il Repository locale potrà quindi eseguire nuovamente la validazione prima della pubblicazione sul FSE.</t>
+    <r>
+      <t xml:space="preserve">Errore nella validazione del documento: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;descrizione dell'errore fornita dal Gateway&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Errore nella validazione del documento: servizio non raggiungibile. Si prega di riprovare piu tardi. Se l'errore persiste, contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t>L'utente è invitato a riprovare la validazione in un secondo momento e a contattare l'assistenza qualora l'errore persista. In tal caso, l'assistenza provvederà a verificare la problematica e la raggiungibilità del servizio del Gateway per poi informare l'utente circa l'esito dei controlli.</t>
   </si>
 </sst>
 </file>
@@ -7723,10 +7737,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomRight" activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9000,19 +9014,19 @@
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="38" t="s">
-        <v>823</v>
+        <v>135</v>
       </c>
       <c r="M39" s="25" t="s">
         <v>135</v>
       </c>
       <c r="N39" s="49" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O39" s="25" t="s">
-        <v>823</v>
+        <v>135</v>
       </c>
       <c r="P39" s="38" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -9300,19 +9314,19 @@
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="38" t="s">
-        <v>823</v>
+        <v>135</v>
       </c>
       <c r="M47" s="25" t="s">
         <v>135</v>
       </c>
       <c r="N47" s="49" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O47" s="25" t="s">
-        <v>823</v>
+        <v>135</v>
       </c>
       <c r="P47" s="38" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -9567,7 +9581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>48</v>
       </c>
@@ -9592,19 +9606,19 @@
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25" t="s">
-        <v>823</v>
+        <v>135</v>
       </c>
       <c r="M55" s="25" t="s">
         <v>135</v>
       </c>
       <c r="N55" s="49" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>823</v>
       </c>
       <c r="P55" s="38" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
@@ -13144,13 +13158,13 @@
         <v>135</v>
       </c>
       <c r="N158" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O158" s="25" t="s">
         <v>135</v>
       </c>
       <c r="P158" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q158" s="25"/>
       <c r="R158" s="26"/>
@@ -13200,13 +13214,13 @@
         <v>135</v>
       </c>
       <c r="N159" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>135</v>
       </c>
       <c r="P159" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -13254,13 +13268,13 @@
         <v>135</v>
       </c>
       <c r="N160" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O160" s="25" t="s">
         <v>135</v>
       </c>
       <c r="P160" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q160" s="25"/>
       <c r="R160" s="26"/>
@@ -13346,13 +13360,13 @@
         <v>135</v>
       </c>
       <c r="N162" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O162" s="25" t="s">
         <v>135</v>
       </c>
       <c r="P162" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q162" s="25"/>
       <c r="R162" s="26"/>
@@ -13400,13 +13414,13 @@
         <v>135</v>
       </c>
       <c r="N163" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O163" s="25" t="s">
         <v>135</v>
       </c>
       <c r="P163" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q163" s="25"/>
       <c r="R163" s="26"/>
@@ -13456,13 +13470,13 @@
         <v>135</v>
       </c>
       <c r="N164" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O164" s="25" t="s">
         <v>135</v>
       </c>
       <c r="P164" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q164" s="25"/>
       <c r="R164" s="26"/>
@@ -13626,13 +13640,13 @@
         <v>135</v>
       </c>
       <c r="N168" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O168" s="38" t="s">
         <v>135</v>
       </c>
       <c r="P168" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q168" s="25"/>
       <c r="R168" s="26"/>
@@ -13948,13 +13962,13 @@
         <v>135</v>
       </c>
       <c r="N176" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O176" s="38" t="s">
         <v>135</v>
       </c>
       <c r="P176" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q176" s="25"/>
       <c r="R176" s="26"/>
@@ -25691,7 +25705,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
